--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
@@ -543,13 +543,13 @@
         <v>0.147767</v>
       </c>
       <c r="H2">
-        <v>0.4433010000000001</v>
+        <v>0.443301</v>
       </c>
       <c r="I2">
-        <v>0.2237254980631613</v>
+        <v>0.2007197005285124</v>
       </c>
       <c r="J2">
-        <v>0.225991687317526</v>
+        <v>0.2255281176915293</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N2">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O2">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P2">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q2">
-        <v>0.3717794077279999</v>
+        <v>0.1450663610523334</v>
       </c>
       <c r="R2">
-        <v>3.346014669552</v>
+        <v>1.305597249471</v>
       </c>
       <c r="S2">
-        <v>0.01964608986562857</v>
+        <v>0.009410400584853979</v>
       </c>
       <c r="T2">
-        <v>0.02233720533001235</v>
+        <v>0.01089941640566756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,13 +605,13 @@
         <v>0.147767</v>
       </c>
       <c r="H3">
-        <v>0.4433010000000001</v>
+        <v>0.443301</v>
       </c>
       <c r="I3">
-        <v>0.2237254980631613</v>
+        <v>0.2007197005285124</v>
       </c>
       <c r="J3">
-        <v>0.225991687317526</v>
+        <v>0.2255281176915293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N3">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O3">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P3">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q3">
-        <v>1.492471623367333</v>
+        <v>0.7617281472646666</v>
       </c>
       <c r="R3">
-        <v>13.432244610306</v>
+        <v>6.855553325382</v>
       </c>
       <c r="S3">
-        <v>0.07886728265495299</v>
+        <v>0.04941302001732303</v>
       </c>
       <c r="T3">
-        <v>0.08967049924605656</v>
+        <v>0.05723168489737009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,13 +667,13 @@
         <v>0.147767</v>
       </c>
       <c r="H4">
-        <v>0.4433010000000001</v>
+        <v>0.443301</v>
       </c>
       <c r="I4">
-        <v>0.2237254980631613</v>
+        <v>0.2007197005285124</v>
       </c>
       <c r="J4">
-        <v>0.225991687317526</v>
+        <v>0.2255281176915293</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N4">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O4">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P4">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q4">
-        <v>1.417049327085</v>
+        <v>0.2775694486255</v>
       </c>
       <c r="R4">
-        <v>8.502295962510001</v>
+        <v>1.665416691753</v>
       </c>
       <c r="S4">
-        <v>0.0748817116958458</v>
+        <v>0.01800582631793387</v>
       </c>
       <c r="T4">
-        <v>0.05675932398603292</v>
+        <v>0.01390326918942275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>0.147767</v>
       </c>
       <c r="H5">
-        <v>0.4433010000000001</v>
+        <v>0.443301</v>
       </c>
       <c r="I5">
-        <v>0.2237254980631613</v>
+        <v>0.2007197005285124</v>
       </c>
       <c r="J5">
-        <v>0.225991687317526</v>
+        <v>0.2255281176915293</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N5">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O5">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P5">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q5">
-        <v>0.9524445616723334</v>
+        <v>1.909837643152</v>
       </c>
       <c r="R5">
-        <v>8.572001055051</v>
+        <v>17.188538788368</v>
       </c>
       <c r="S5">
-        <v>0.05033041384673394</v>
+        <v>0.1238904536084015</v>
       </c>
       <c r="T5">
-        <v>0.0572246587554242</v>
+        <v>0.1434937471990689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.198404</v>
+        <v>0.2573206666666667</v>
       </c>
       <c r="H6">
-        <v>0.5952120000000001</v>
+        <v>0.771962</v>
       </c>
       <c r="I6">
-        <v>0.3003920612702665</v>
+        <v>0.3495322172956783</v>
       </c>
       <c r="J6">
-        <v>0.3034348313936565</v>
+        <v>0.3927334627925232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N6">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O6">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P6">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q6">
-        <v>0.499181289536</v>
+        <v>0.2526177883891111</v>
       </c>
       <c r="R6">
-        <v>4.492631605824</v>
+        <v>2.273560095502</v>
       </c>
       <c r="S6">
-        <v>0.02637843912172658</v>
+        <v>0.01638722145062846</v>
       </c>
       <c r="T6">
-        <v>0.02999174975668295</v>
+        <v>0.01898018566922236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.198404</v>
+        <v>0.2573206666666667</v>
       </c>
       <c r="H7">
-        <v>0.5952120000000001</v>
+        <v>0.771962</v>
       </c>
       <c r="I7">
-        <v>0.3003920612702665</v>
+        <v>0.3495322172956783</v>
       </c>
       <c r="J7">
-        <v>0.3034348313936565</v>
+        <v>0.3927334627925232</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N7">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O7">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P7">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q7">
-        <v>2.003913864141333</v>
+        <v>1.326469338031556</v>
       </c>
       <c r="R7">
-        <v>18.035224777272</v>
+        <v>11.938224042284</v>
       </c>
       <c r="S7">
-        <v>0.1058936321903625</v>
+        <v>0.08604756984219013</v>
       </c>
       <c r="T7">
-        <v>0.120398909989474</v>
+        <v>0.09966295121541258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.198404</v>
+        <v>0.2573206666666667</v>
       </c>
       <c r="H8">
-        <v>0.5952120000000001</v>
+        <v>0.771962</v>
       </c>
       <c r="I8">
-        <v>0.3003920612702665</v>
+        <v>0.3495322172956783</v>
       </c>
       <c r="J8">
-        <v>0.3034348313936565</v>
+        <v>0.3927334627925232</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N8">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O8">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P8">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q8">
-        <v>1.90264575102</v>
+        <v>0.4833579592643333</v>
       </c>
       <c r="R8">
-        <v>11.41587450612</v>
+        <v>2.900147755586</v>
       </c>
       <c r="S8">
-        <v>0.1005422802608336</v>
+        <v>0.03135525003563013</v>
       </c>
       <c r="T8">
-        <v>0.07620968765776442</v>
+        <v>0.02421107890576643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.198404</v>
+        <v>0.2573206666666667</v>
       </c>
       <c r="H9">
-        <v>0.5952120000000001</v>
+        <v>0.771962</v>
       </c>
       <c r="I9">
-        <v>0.3003920612702665</v>
+        <v>0.3495322172956783</v>
       </c>
       <c r="J9">
-        <v>0.3034348313936565</v>
+        <v>0.3927334627925232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N9">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O9">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P9">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q9">
-        <v>1.278829581801334</v>
+        <v>3.325781098357333</v>
       </c>
       <c r="R9">
-        <v>11.509466236212</v>
+        <v>29.932029885216</v>
       </c>
       <c r="S9">
-        <v>0.06757770969734381</v>
+        <v>0.2157421759672296</v>
       </c>
       <c r="T9">
-        <v>0.07683448398973507</v>
+        <v>0.2498792470021219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0198695</v>
+        <v>0.2429445</v>
       </c>
       <c r="H10">
-        <v>0.039739</v>
+        <v>0.485889</v>
       </c>
       <c r="I10">
-        <v>0.03008326475983124</v>
+        <v>0.3300043127697603</v>
       </c>
       <c r="J10">
-        <v>0.02025865870438182</v>
+        <v>0.2471946410610837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N10">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O10">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P10">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q10">
-        <v>0.04999134408799999</v>
+        <v>0.2385043653365</v>
       </c>
       <c r="R10">
-        <v>0.2999480645279999</v>
+        <v>1.431026192019</v>
       </c>
       <c r="S10">
-        <v>0.002641712849182204</v>
+        <v>0.01547168897580013</v>
       </c>
       <c r="T10">
-        <v>0.002002382585668339</v>
+        <v>0.01194652513288579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0198695</v>
+        <v>0.2429445</v>
       </c>
       <c r="H11">
-        <v>0.039739</v>
+        <v>0.485889</v>
       </c>
       <c r="I11">
-        <v>0.03008326475983124</v>
+        <v>0.3300043127697603</v>
       </c>
       <c r="J11">
-        <v>0.02025865870438182</v>
+        <v>0.2471946410610837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N11">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O11">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P11">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q11">
-        <v>0.2006853013223333</v>
+        <v>1.252361243533</v>
       </c>
       <c r="R11">
-        <v>1.204111807934</v>
+        <v>7.514167461198</v>
       </c>
       <c r="S11">
-        <v>0.01060489468360722</v>
+        <v>0.08124020546941153</v>
       </c>
       <c r="T11">
-        <v>0.008038366639233931</v>
+        <v>0.06272994228097446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0198695</v>
+        <v>0.2429445</v>
       </c>
       <c r="H12">
-        <v>0.039739</v>
+        <v>0.485889</v>
       </c>
       <c r="I12">
-        <v>0.03008326475983124</v>
+        <v>0.3300043127697603</v>
       </c>
       <c r="J12">
-        <v>0.02025865870438182</v>
+        <v>0.2471946410610837</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N12">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O12">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P12">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q12">
-        <v>0.1905436369725</v>
+        <v>0.45635338682925</v>
       </c>
       <c r="R12">
-        <v>0.7621745478899999</v>
+        <v>1.825413547317</v>
       </c>
       <c r="S12">
-        <v>0.01006897460556557</v>
+        <v>0.02960347352180992</v>
       </c>
       <c r="T12">
-        <v>0.005088097648958522</v>
+        <v>0.01523895854775746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0198695</v>
+        <v>0.2429445</v>
       </c>
       <c r="H13">
-        <v>0.039739</v>
+        <v>0.485889</v>
       </c>
       <c r="I13">
-        <v>0.03008326475983124</v>
+        <v>0.3300043127697603</v>
       </c>
       <c r="J13">
-        <v>0.02025865870438182</v>
+        <v>0.2471946410610837</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N13">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O13">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P13">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q13">
-        <v>0.1280705246648333</v>
+        <v>3.139974089592</v>
       </c>
       <c r="R13">
-        <v>0.7684231479889999</v>
+        <v>18.839844537552</v>
       </c>
       <c r="S13">
-        <v>0.006767682621476243</v>
+        <v>0.2036889448027387</v>
       </c>
       <c r="T13">
-        <v>0.005129811830521027</v>
+        <v>0.157279215099466</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.294443</v>
+        <v>0.08815366666666667</v>
       </c>
       <c r="H14">
-        <v>0.883329</v>
+        <v>0.264461</v>
       </c>
       <c r="I14">
-        <v>0.4457991759067411</v>
+        <v>0.119743769406049</v>
       </c>
       <c r="J14">
-        <v>0.4503148225844357</v>
+        <v>0.1345437784548637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.515984</v>
+        <v>0.9817236666666668</v>
       </c>
       <c r="N14">
-        <v>7.547951999999999</v>
+        <v>2.945171</v>
       </c>
       <c r="O14">
-        <v>0.08781336966822691</v>
+        <v>0.04688329326954743</v>
       </c>
       <c r="P14">
-        <v>0.09884082726736675</v>
+        <v>0.04832841473263862</v>
       </c>
       <c r="Q14">
-        <v>0.7408138769119998</v>
+        <v>0.08654254087011112</v>
       </c>
       <c r="R14">
-        <v>6.667324892207999</v>
+        <v>0.778882867831</v>
       </c>
       <c r="S14">
-        <v>0.03914712783168957</v>
+        <v>0.005613982258264854</v>
       </c>
       <c r="T14">
-        <v>0.04450948959500312</v>
+        <v>0.006502287524862901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.294443</v>
+        <v>0.08815366666666667</v>
       </c>
       <c r="H15">
-        <v>0.883329</v>
+        <v>0.264461</v>
       </c>
       <c r="I15">
-        <v>0.4457991759067411</v>
+        <v>0.119743769406049</v>
       </c>
       <c r="J15">
-        <v>0.4503148225844357</v>
+        <v>0.1345437784548637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.10016866666667</v>
+        <v>5.154927333333333</v>
       </c>
       <c r="N15">
-        <v>30.300506</v>
+        <v>15.464782</v>
       </c>
       <c r="O15">
-        <v>0.3525180783492433</v>
+        <v>0.2461792235003055</v>
       </c>
       <c r="P15">
-        <v>0.396786715079774</v>
+        <v>0.2537674037418691</v>
       </c>
       <c r="Q15">
-        <v>2.973923962719334</v>
+        <v>0.4544257458335555</v>
       </c>
       <c r="R15">
-        <v>26.765315664474</v>
+        <v>4.089831712502</v>
       </c>
       <c r="S15">
-        <v>0.1571522688203207</v>
+        <v>0.02947842817138076</v>
       </c>
       <c r="T15">
-        <v>0.1786789392050095</v>
+        <v>0.03414282534811199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.294443</v>
+        <v>0.08815366666666667</v>
       </c>
       <c r="H16">
-        <v>0.883329</v>
+        <v>0.264461</v>
       </c>
       <c r="I16">
-        <v>0.4457991759067411</v>
+        <v>0.119743769406049</v>
       </c>
       <c r="J16">
-        <v>0.4503148225844357</v>
+        <v>0.1345437784548637</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.589755</v>
+        <v>1.8784265</v>
       </c>
       <c r="N16">
-        <v>19.17951</v>
+        <v>3.756853</v>
       </c>
       <c r="O16">
-        <v>0.3347035199121804</v>
+        <v>0.08970632314876403</v>
       </c>
       <c r="P16">
-        <v>0.2511566892559377</v>
+        <v>0.06164760887349412</v>
       </c>
       <c r="Q16">
-        <v>2.823636231465</v>
+        <v>0.1655901835388333</v>
       </c>
       <c r="R16">
-        <v>16.94181738879</v>
+        <v>0.9935411012329999</v>
       </c>
       <c r="S16">
-        <v>0.1492105533499355</v>
+        <v>0.01074177327339011</v>
       </c>
       <c r="T16">
-        <v>0.1130995799631818</v>
+        <v>0.008294302230547482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.294443</v>
+        <v>0.08815366666666667</v>
       </c>
       <c r="H17">
-        <v>0.883329</v>
+        <v>0.264461</v>
       </c>
       <c r="I17">
-        <v>0.4457991759067411</v>
+        <v>0.119743769406049</v>
       </c>
       <c r="J17">
-        <v>0.4503148225844357</v>
+        <v>0.1345437784548637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.445583666666667</v>
+        <v>12.924656</v>
       </c>
       <c r="N17">
-        <v>19.336751</v>
+        <v>38.773968</v>
       </c>
       <c r="O17">
-        <v>0.2249650320703492</v>
+        <v>0.617231160081383</v>
       </c>
       <c r="P17">
-        <v>0.2532157683969216</v>
+        <v>0.6362565726519981</v>
       </c>
       <c r="Q17">
-        <v>1.897856991564334</v>
+        <v>1.139355816805333</v>
       </c>
       <c r="R17">
-        <v>17.080712924079</v>
+        <v>10.254202351248</v>
       </c>
       <c r="S17">
-        <v>0.1002892259047953</v>
+        <v>0.07390958570301322</v>
       </c>
       <c r="T17">
-        <v>0.1140268138212413</v>
+        <v>0.08560436335134132</v>
       </c>
     </row>
   </sheetData>
